--- a/backend/projects/project-a-123-sunset-blvd/data/03_DESIGN_DRAWINGS/Architectural/Design_Fees.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/03_DESIGN_DRAWINGS/Architectural/Design_Fees.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Fees" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Fees" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,25 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,8 +595,6 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
       <c r="C7">
         <f>SUM(C2:C6)</f>
         <v/>
@@ -628,7 +607,535 @@
         <f>SUM(E2:E6)</f>
         <v/>
       </c>
-      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>34066</v>
+      </c>
+      <c r="B8" t="n">
+        <v>23508</v>
+      </c>
+      <c r="C8">
+        <f>SUM(C2:C6)</f>
+        <v/>
+      </c>
+      <c r="D8">
+        <f>SUM(D2:D6)</f>
+        <v/>
+      </c>
+      <c r="E8">
+        <f>SUM(E2:E6)</f>
+        <v/>
+      </c>
+      <c r="F8" t="n">
+        <v>11863</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37840</v>
+      </c>
+      <c r="B9" t="n">
+        <v>45235</v>
+      </c>
+      <c r="C9">
+        <f>SUM(C2:C6)</f>
+        <v/>
+      </c>
+      <c r="D9">
+        <f>SUM(D2:D6)</f>
+        <v/>
+      </c>
+      <c r="E9">
+        <f>SUM(E2:E6)</f>
+        <v/>
+      </c>
+      <c r="F9" t="n">
+        <v>24181</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>26277</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11128</v>
+      </c>
+      <c r="C10">
+        <f>SUM(C2:C6)</f>
+        <v/>
+      </c>
+      <c r="D10">
+        <f>SUM(D2:D6)</f>
+        <v/>
+      </c>
+      <c r="E10">
+        <f>SUM(E2:E6)</f>
+        <v/>
+      </c>
+      <c r="F10" t="n">
+        <v>47058</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>27633</v>
+      </c>
+      <c r="B11" t="n">
+        <v>27534</v>
+      </c>
+      <c r="C11">
+        <f>SUM(C2:C6)</f>
+        <v/>
+      </c>
+      <c r="D11">
+        <f>SUM(D2:D6)</f>
+        <v/>
+      </c>
+      <c r="E11">
+        <f>SUM(E2:E6)</f>
+        <v/>
+      </c>
+      <c r="F11" t="n">
+        <v>47704</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>43863</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8996</v>
+      </c>
+      <c r="C12">
+        <f>SUM(C2:C6)</f>
+        <v/>
+      </c>
+      <c r="D12">
+        <f>SUM(D2:D6)</f>
+        <v/>
+      </c>
+      <c r="E12">
+        <f>SUM(E2:E6)</f>
+        <v/>
+      </c>
+      <c r="F12" t="n">
+        <v>8936</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13476</v>
+      </c>
+      <c r="B13" t="n">
+        <v>20638</v>
+      </c>
+      <c r="C13">
+        <f>SUM(C2:C6)</f>
+        <v/>
+      </c>
+      <c r="D13">
+        <f>SUM(D2:D6)</f>
+        <v/>
+      </c>
+      <c r="E13">
+        <f>SUM(E2:E6)</f>
+        <v/>
+      </c>
+      <c r="F13" t="n">
+        <v>45064</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>20275</v>
+      </c>
+      <c r="B14" t="n">
+        <v>18377</v>
+      </c>
+      <c r="C14">
+        <f>SUM(C2:C6)</f>
+        <v/>
+      </c>
+      <c r="D14">
+        <f>SUM(D2:D6)</f>
+        <v/>
+      </c>
+      <c r="E14">
+        <f>SUM(E2:E6)</f>
+        <v/>
+      </c>
+      <c r="F14" t="n">
+        <v>18135</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>43930</v>
+      </c>
+      <c r="B15" t="n">
+        <v>30749</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C2:C6)</f>
+        <v/>
+      </c>
+      <c r="D15">
+        <f>SUM(D2:D6)</f>
+        <v/>
+      </c>
+      <c r="E15">
+        <f>SUM(E2:E6)</f>
+        <v/>
+      </c>
+      <c r="F15" t="n">
+        <v>10979</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>33422</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2523</v>
+      </c>
+      <c r="C16">
+        <f>SUM(C2:C6)</f>
+        <v/>
+      </c>
+      <c r="D16">
+        <f>SUM(D2:D6)</f>
+        <v/>
+      </c>
+      <c r="E16">
+        <f>SUM(E2:E6)</f>
+        <v/>
+      </c>
+      <c r="F16" t="n">
+        <v>18070</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>24531</v>
+      </c>
+      <c r="B17" t="n">
+        <v>46479</v>
+      </c>
+      <c r="C17">
+        <f>SUM(C2:C6)</f>
+        <v/>
+      </c>
+      <c r="D17">
+        <f>SUM(D2:D6)</f>
+        <v/>
+      </c>
+      <c r="E17">
+        <f>SUM(E2:E6)</f>
+        <v/>
+      </c>
+      <c r="F17" t="n">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B18" t="n">
+        <v>44440</v>
+      </c>
+      <c r="C18">
+        <f>SUM(C2:C6)</f>
+        <v/>
+      </c>
+      <c r="D18">
+        <f>SUM(D2:D6)</f>
+        <v/>
+      </c>
+      <c r="E18">
+        <f>SUM(E2:E6)</f>
+        <v/>
+      </c>
+      <c r="F18" t="n">
+        <v>12642</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>39238</v>
+      </c>
+      <c r="B19" t="n">
+        <v>47601</v>
+      </c>
+      <c r="C19">
+        <f>SUM(C2:C6)</f>
+        <v/>
+      </c>
+      <c r="D19">
+        <f>SUM(D2:D6)</f>
+        <v/>
+      </c>
+      <c r="E19">
+        <f>SUM(E2:E6)</f>
+        <v/>
+      </c>
+      <c r="F19" t="n">
+        <v>12153</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7502</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5761</v>
+      </c>
+      <c r="C20">
+        <f>SUM(C2:C6)</f>
+        <v/>
+      </c>
+      <c r="D20">
+        <f>SUM(D2:D6)</f>
+        <v/>
+      </c>
+      <c r="E20">
+        <f>SUM(E2:E6)</f>
+        <v/>
+      </c>
+      <c r="F20" t="n">
+        <v>21050</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>34883</v>
+      </c>
+      <c r="B21" t="n">
+        <v>11123</v>
+      </c>
+      <c r="C21">
+        <f>SUM(C2:C6)</f>
+        <v/>
+      </c>
+      <c r="D21">
+        <f>SUM(D2:D6)</f>
+        <v/>
+      </c>
+      <c r="E21">
+        <f>SUM(E2:E6)</f>
+        <v/>
+      </c>
+      <c r="F21" t="n">
+        <v>35032</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20549</v>
+      </c>
+      <c r="B22" t="n">
+        <v>41280</v>
+      </c>
+      <c r="C22">
+        <f>SUM(C2:C6)</f>
+        <v/>
+      </c>
+      <c r="D22">
+        <f>SUM(D2:D6)</f>
+        <v/>
+      </c>
+      <c r="E22">
+        <f>SUM(E2:E6)</f>
+        <v/>
+      </c>
+      <c r="F22" t="n">
+        <v>47687</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>11973</v>
+      </c>
+      <c r="B23" t="n">
+        <v>46928</v>
+      </c>
+      <c r="C23">
+        <f>SUM(C2:C6)</f>
+        <v/>
+      </c>
+      <c r="D23">
+        <f>SUM(D2:D6)</f>
+        <v/>
+      </c>
+      <c r="E23">
+        <f>SUM(E2:E6)</f>
+        <v/>
+      </c>
+      <c r="F23" t="n">
+        <v>6701</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>20559</v>
+      </c>
+      <c r="B24" t="n">
+        <v>49070</v>
+      </c>
+      <c r="C24">
+        <f>SUM(C2:C6)</f>
+        <v/>
+      </c>
+      <c r="D24">
+        <f>SUM(D2:D6)</f>
+        <v/>
+      </c>
+      <c r="E24">
+        <f>SUM(E2:E6)</f>
+        <v/>
+      </c>
+      <c r="F24" t="n">
+        <v>17336</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>49797</v>
+      </c>
+      <c r="B25" t="n">
+        <v>41280</v>
+      </c>
+      <c r="C25">
+        <f>SUM(C2:C6)</f>
+        <v/>
+      </c>
+      <c r="D25">
+        <f>SUM(D2:D6)</f>
+        <v/>
+      </c>
+      <c r="E25">
+        <f>SUM(E2:E6)</f>
+        <v/>
+      </c>
+      <c r="F25" t="n">
+        <v>14726</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>21718</v>
+      </c>
+      <c r="B26" t="n">
+        <v>11473</v>
+      </c>
+      <c r="C26">
+        <f>SUM(C2:C6)</f>
+        <v/>
+      </c>
+      <c r="D26">
+        <f>SUM(D2:D6)</f>
+        <v/>
+      </c>
+      <c r="E26">
+        <f>SUM(E2:E6)</f>
+        <v/>
+      </c>
+      <c r="F26" t="n">
+        <v>48588</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>8615</v>
+      </c>
+      <c r="B27" t="n">
+        <v>37203</v>
+      </c>
+      <c r="C27">
+        <f>SUM(C2:C6)</f>
+        <v/>
+      </c>
+      <c r="D27">
+        <f>SUM(D2:D6)</f>
+        <v/>
+      </c>
+      <c r="E27">
+        <f>SUM(E2:E6)</f>
+        <v/>
+      </c>
+      <c r="F27" t="n">
+        <v>22389</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6285</v>
+      </c>
+      <c r="B28" t="n">
+        <v>47228</v>
+      </c>
+      <c r="C28">
+        <f>SUM(C2:C6)</f>
+        <v/>
+      </c>
+      <c r="D28">
+        <f>SUM(D2:D6)</f>
+        <v/>
+      </c>
+      <c r="E28">
+        <f>SUM(E2:E6)</f>
+        <v/>
+      </c>
+      <c r="F28" t="n">
+        <v>16478</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>45129</v>
+      </c>
+      <c r="B29" t="n">
+        <v>31489</v>
+      </c>
+      <c r="C29">
+        <f>SUM(C2:C6)</f>
+        <v/>
+      </c>
+      <c r="D29">
+        <f>SUM(D2:D6)</f>
+        <v/>
+      </c>
+      <c r="E29">
+        <f>SUM(E2:E6)</f>
+        <v/>
+      </c>
+      <c r="F29" t="n">
+        <v>5141</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>31079</v>
+      </c>
+      <c r="B30" t="n">
+        <v>48242</v>
+      </c>
+      <c r="C30">
+        <f>SUM(C2:C6)</f>
+        <v/>
+      </c>
+      <c r="D30">
+        <f>SUM(D2:D6)</f>
+        <v/>
+      </c>
+      <c r="E30">
+        <f>SUM(E2:E6)</f>
+        <v/>
+      </c>
+      <c r="F30" t="n">
+        <v>5813</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
